--- a/src/files/archivo_actualizado.xlsx
+++ b/src/files/archivo_actualizado.xlsx
@@ -49,7 +49,7 @@
     <t>BOTA DE SEGURIDAD</t>
   </si>
   <si>
-    <t>2025-08-28</t>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>a</t>

--- a/src/files/archivo_actualizado.xlsx
+++ b/src/files/archivo_actualizado.xlsx
@@ -17,15 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
-  <si>
-    <t>NOMBRE DEL EMPLEADO: AGUILAR CAMACHO YURITZY AMEYALIN</t>
-  </si>
-  <si>
-    <t>CÉDULA: 10827</t>
-  </si>
-  <si>
-    <t>CARGO: Operario General</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+  <si>
+    <t>NOMBRE DEL EMPLEADO: GOMEZ JUAREZ OSCAR</t>
+  </si>
+  <si>
+    <t>CÉDULA: 10789</t>
+  </si>
+  <si>
+    <t>CARGO: Operario Ayudante de Mezclado</t>
   </si>
   <si>
     <t>ÁREA: Producción</t>
@@ -46,13 +46,19 @@
     <t>FIRMA</t>
   </si>
   <si>
-    <t>BOTA DE SEGURIDAD</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>RESPIRADOR</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>N95</t>
+  </si>
+  <si>
+    <t>LENTES DE SEGURIDAD</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -447,12 +453,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6858000" cy="1524000"/>
+    <xdr:ext cx="952500" cy="238125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 5">
@@ -468,6 +474,45 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6858000" cy="1524000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -899,9 +944,13 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -913,7 +962,7 @@
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -922,7 +971,7 @@
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -959,7 +1008,7 @@
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -968,7 +1017,7 @@
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -977,7 +1026,7 @@
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -986,7 +1035,7 @@
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1002,7 +1051,7 @@
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1011,7 +1060,7 @@
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1020,7 +1069,7 @@
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1036,7 +1085,7 @@
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1045,7 +1094,7 @@
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1054,7 +1103,7 @@
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1063,7 +1112,7 @@
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1093,7 +1142,7 @@
     </row>
     <row r="34" ht="36.75" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>

--- a/src/files/archivo_actualizado.xlsx
+++ b/src/files/archivo_actualizado.xlsx
@@ -17,15 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
-  <si>
-    <t>NOMBRE DEL EMPLEADO: GOMEZ JUAREZ OSCAR</t>
-  </si>
-  <si>
-    <t>CÉDULA: 10789</t>
-  </si>
-  <si>
-    <t>CARGO: Operario Ayudante de Mezclado</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+  <si>
+    <t>NOMBRE DEL EMPLEADO: AGUILAR MENDOZA JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>CÉDULA: 10806</t>
+  </si>
+  <si>
+    <t>CARGO: Operario General</t>
   </si>
   <si>
     <t>ÁREA: Producción</t>
@@ -46,19 +46,13 @@
     <t>FIRMA</t>
   </si>
   <si>
-    <t>RESPIRADOR</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>N95</t>
-  </si>
-  <si>
-    <t>LENTES DE SEGURIDAD</t>
-  </si>
-  <si>
-    <t/>
+    <t>GUANTES NEGROS</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>#9</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -453,12 +447,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="238125"/>
+    <xdr:ext cx="6858000" cy="1524000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 5">
@@ -474,45 +468,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6858000" cy="1524000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -944,13 +899,9 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -962,7 +913,7 @@
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -971,7 +922,7 @@
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1008,7 +959,7 @@
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1017,7 +968,7 @@
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1026,7 +977,7 @@
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1035,7 +986,7 @@
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1051,7 +1002,7 @@
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1060,7 +1011,7 @@
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1069,7 +1020,7 @@
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1085,7 +1036,7 @@
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1094,7 +1045,7 @@
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1103,7 +1054,7 @@
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1112,7 +1063,7 @@
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1142,7 +1093,7 @@
     </row>
     <row r="34" ht="36.75" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>

--- a/src/files/archivo_actualizado.xlsx
+++ b/src/files/archivo_actualizado.xlsx
@@ -19,13 +19,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
-    <t>NOMBRE DEL EMPLEADO: AGUILAR MENDOZA JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>CÉDULA: 10806</t>
-  </si>
-  <si>
-    <t>CARGO: Operario General</t>
+    <t>NOMBRE DEL EMPLEADO: AGUILAR BRAVO JAQUELINE MONTSERRAT</t>
+  </si>
+  <si>
+    <t>CÉDULA: 11056</t>
+  </si>
+  <si>
+    <t>CARGO: Operario de Aseo</t>
   </si>
   <si>
     <t>ÁREA: Producción</t>
@@ -46,13 +46,13 @@
     <t>FIRMA</t>
   </si>
   <si>
-    <t>GUANTES NEGROS</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>#9</t>
+    <t>RESPIRADOR</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
